--- a/archivos/participacion_rm.xlsx
+++ b/archivos/participacion_rm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="1700" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,9 @@
     <t>comuna</t>
   </si>
   <si>
-    <t>pob14_comuna</t>
-  </si>
-  <si>
     <t>indice_participacion</t>
   </si>
   <si>
-    <t>encuentros_poblacion</t>
-  </si>
-  <si>
     <t>Santiago</t>
   </si>
   <si>
@@ -187,6 +181,12 @@
   </si>
   <si>
     <t>Padre Hurtado</t>
+  </si>
+  <si>
+    <t>poblacion</t>
+  </si>
+  <si>
+    <t>encuentros_10000hab</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -616,18 +616,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>139180</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>51997</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>103064</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>86984</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>132573</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>91416</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>64436</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>42814</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>58255</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>323562</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>97086</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>152565</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>77244</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>238274</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>83064</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>77441</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>73017</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>80607</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>654544</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>123519</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>75873</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>192217</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>108741</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>206973</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>154585</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>70949</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>100228</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>100676</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>64226</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>58490</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>65385</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>65275</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>561464</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>17991</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>11632</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>84107</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>46979</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>12156</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>232557</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41">
         <v>56534</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>20746</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <v>48929</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>81778</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B45">
         <v>3664</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>23008</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>9081</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>6155</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>57975</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>23389</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>24250</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>37634</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>64961</v>

--- a/archivos/participacion_rm.xlsx
+++ b/archivos/participacion_rm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="11500" yWindow="0" windowWidth="25040" windowHeight="14960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,6 +217,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14.4"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,7 +240,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -253,11 +258,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -266,6 +278,9 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -274,6 +289,9 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -606,751 +624,751 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>139180</v>
       </c>
-      <c r="C2">
-        <v>68.617617473774999</v>
-      </c>
-      <c r="D2">
-        <v>66.891794798103206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="C2" s="1">
+        <v>69.334999999999994</v>
+      </c>
+      <c r="D2" s="1">
+        <v>68.617617469999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>51997</v>
       </c>
-      <c r="C3">
-        <v>51.470277131372995</v>
-      </c>
-      <c r="D3">
-        <v>9.8082581687404993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="C3" s="1">
+        <v>10.962</v>
+      </c>
+      <c r="D3" s="1">
+        <v>51.470277129999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>103064</v>
       </c>
-      <c r="C4">
-        <v>45.129240083831398</v>
-      </c>
-      <c r="D4">
-        <v>4.4632461383218196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="C4" s="1">
+        <v>4.657</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45.129240080000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>86984</v>
       </c>
-      <c r="C5">
-        <v>56.863331187344798</v>
-      </c>
-      <c r="D5">
-        <v>10.9215487905822</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="C5" s="1">
+        <v>11.037000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>56.863331189999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>132573</v>
       </c>
-      <c r="C6">
-        <v>41.629894473233598</v>
-      </c>
-      <c r="D6">
-        <v>8.6744661431814905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="C6" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41.629894470000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18">
+      <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>91416</v>
       </c>
-      <c r="C7">
-        <v>54.323094425483497</v>
-      </c>
-      <c r="D7">
-        <v>10.173273825151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="C7" s="1">
+        <v>11.048</v>
+      </c>
+      <c r="D7" s="1">
+        <v>54.323094429999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>64436</v>
       </c>
-      <c r="C8">
-        <v>42.791296790613899</v>
-      </c>
-      <c r="D8">
-        <v>9.4667577130796392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="C8" s="1">
+        <v>9.7769999999999992</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42.791296789999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>42814</v>
       </c>
-      <c r="C9">
-        <v>68.559349745410401</v>
-      </c>
-      <c r="D9">
-        <v>19.6197505488859</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="C9" s="1">
+        <v>22.422999999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>68.559349749999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>58255</v>
       </c>
-      <c r="C10">
-        <v>59.287614797013099</v>
-      </c>
-      <c r="D10">
-        <v>9.6129087631962893</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="C10" s="1">
+        <v>11.157999999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>59.2876148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>323562</v>
       </c>
-      <c r="C11">
-        <v>37.4942051291561</v>
-      </c>
-      <c r="D11">
-        <v>8.7154857492536202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="C11" s="1">
+        <v>8.9320000000000004</v>
+      </c>
+      <c r="D11" s="1">
+        <v>37.494205129999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>97086</v>
       </c>
-      <c r="C12">
-        <v>40.175720495230998</v>
-      </c>
-      <c r="D12">
-        <v>4.8410687431761499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="C12" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>40.175720499999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>152565</v>
       </c>
-      <c r="C13">
-        <v>28.2777832399305</v>
-      </c>
-      <c r="D13">
-        <v>3.9327499754203101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="C13" s="1">
+        <v>4.3920000000000003</v>
+      </c>
+      <c r="D13" s="1">
+        <v>28.277783240000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>77244</v>
       </c>
-      <c r="C14">
-        <v>56.584330174511898</v>
-      </c>
-      <c r="D14">
-        <v>33.400652477862401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="C14" s="1">
+        <v>35.472000000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>56.584330170000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18">
+      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>238274</v>
       </c>
-      <c r="C15">
-        <v>53.0657981987124</v>
-      </c>
-      <c r="D15">
-        <v>19.389442406641098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="C15" s="1">
+        <v>19.850999999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>53.065798200000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18">
+      <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>83064</v>
       </c>
-      <c r="C16">
-        <v>41.500529712029298</v>
-      </c>
-      <c r="D16">
-        <v>10.594240585572599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="C16" s="1">
+        <v>11.919</v>
+      </c>
+      <c r="D16" s="1">
+        <v>41.500529710000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18">
+      <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>77441</v>
       </c>
-      <c r="C17">
-        <v>47.792513009904305</v>
-      </c>
-      <c r="D17">
-        <v>7.2313115791376701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="C17" s="1">
+        <v>7.8769999999999998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>47.79251301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18">
+      <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>73017</v>
       </c>
-      <c r="C18">
-        <v>52.493254995411995</v>
-      </c>
-      <c r="D18">
-        <v>15.0649848665379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="C18" s="1">
+        <v>15.75</v>
+      </c>
+      <c r="D18" s="1">
+        <v>52.493254999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>80607</v>
       </c>
-      <c r="C19">
-        <v>54.565980622030295</v>
-      </c>
-      <c r="D19">
-        <v>17.988512163955999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="C19" s="1">
+        <v>18.484999999999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>54.565980619999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18">
+      <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>654544</v>
       </c>
-      <c r="C20">
-        <v>20.488003862230801</v>
-      </c>
-      <c r="D20">
-        <v>3.0861179691510401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="C20" s="1">
+        <v>3.3759999999999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20.488003859999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>123519</v>
       </c>
-      <c r="C21">
-        <v>71.706377156550801</v>
-      </c>
-      <c r="D21">
-        <v>38.050826188683502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="C21" s="1">
+        <v>40.399000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>71.706377160000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>75873</v>
       </c>
-      <c r="C22">
-        <v>56.560304719729004</v>
-      </c>
-      <c r="D22">
-        <v>18.8472842776745</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="C22" s="1">
+        <v>19.77</v>
+      </c>
+      <c r="D22" s="1">
+        <v>56.560304719999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>192217</v>
       </c>
-      <c r="C23">
-        <v>38.189129993705002</v>
-      </c>
-      <c r="D23">
-        <v>8.6360727719192401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="C23" s="1">
+        <v>9.4160000000000004</v>
+      </c>
+      <c r="D23" s="1">
+        <v>38.189129989999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18">
+      <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>108741</v>
       </c>
-      <c r="C24">
-        <v>64.254513017169202</v>
-      </c>
-      <c r="D24">
-        <v>58.947407141740499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="C24" s="1">
+        <v>60.326999999999998</v>
+      </c>
+      <c r="D24" s="1">
+        <v>64.254513020000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18">
+      <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>206973</v>
       </c>
-      <c r="C25">
-        <v>28.4467056089442</v>
-      </c>
-      <c r="D25">
-        <v>2.8022978842651001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="C25" s="1">
+        <v>3.141</v>
+      </c>
+      <c r="D25" s="1">
+        <v>28.446705609999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18">
+      <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>154585</v>
       </c>
-      <c r="C26">
-        <v>27.663744865284499</v>
-      </c>
-      <c r="D26">
-        <v>4.2048064171814898</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="C26" s="1">
+        <v>4.4640000000000004</v>
+      </c>
+      <c r="D26" s="1">
+        <v>27.663744869999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>70949</v>
       </c>
-      <c r="C27">
-        <v>56.230531790440999</v>
-      </c>
-      <c r="D27">
-        <v>26.356960633694602</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="C27" s="1">
+        <v>26.074999999999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>56.230531790000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18">
+      <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>100228</v>
       </c>
-      <c r="C28">
-        <v>54.086682364209601</v>
-      </c>
-      <c r="D28">
-        <v>26.639262481542101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="C28" s="1">
+        <v>27.837</v>
+      </c>
+      <c r="D28" s="1">
+        <v>54.086682359999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18">
+      <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>100676</v>
       </c>
-      <c r="C29">
-        <v>41.626604155906101</v>
-      </c>
-      <c r="D29">
-        <v>4.0724701021097403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="C29" s="1">
+        <v>4.6680000000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>41.626604159999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>64226</v>
       </c>
-      <c r="C30">
-        <v>54.476380282128702</v>
-      </c>
-      <c r="D30">
-        <v>10.1205119422041</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="C30" s="1">
+        <v>10.432</v>
+      </c>
+      <c r="D30" s="1">
+        <v>54.476380280000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18">
+      <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>58490</v>
       </c>
-      <c r="C31">
-        <v>66.623354419558893</v>
-      </c>
-      <c r="D31">
-        <v>21.542143956231801</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="C31" s="1">
+        <v>21.713000000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>66.623354419999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18">
+      <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>65385</v>
       </c>
-      <c r="C32">
-        <v>53.464861971400204</v>
-      </c>
-      <c r="D32">
-        <v>6.7293721801636499</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="C32" s="1">
+        <v>7.4939999999999998</v>
+      </c>
+      <c r="D32" s="1">
+        <v>53.464861970000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18">
+      <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>65275</v>
       </c>
-      <c r="C33">
-        <v>75.030256606664096</v>
-      </c>
-      <c r="D33">
-        <v>27.422443508234402</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="C33" s="1">
+        <v>27.422000000000001</v>
+      </c>
+      <c r="D33" s="1">
+        <v>75.030256609999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18">
+      <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>561464</v>
       </c>
-      <c r="C34">
-        <v>19.164719376487199</v>
-      </c>
-      <c r="D34">
-        <v>7.1776641066925002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="C34" s="1">
+        <v>7.6050000000000004</v>
+      </c>
+      <c r="D34" s="1">
+        <v>19.164719380000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18">
+      <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>17991</v>
       </c>
-      <c r="C35">
-        <v>47.384803512867499</v>
-      </c>
-      <c r="D35">
-        <v>12.2283363904174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="C35" s="1">
+        <v>13.34</v>
+      </c>
+      <c r="D35" s="1">
+        <v>47.384803509999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18">
+      <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>11632</v>
       </c>
-      <c r="C36">
-        <v>56.499312242090802</v>
-      </c>
-      <c r="D36">
-        <v>20.6327372764787</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="C36" s="1">
+        <v>22.352</v>
+      </c>
+      <c r="D36" s="1">
+        <v>56.499312240000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18">
+      <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>84107</v>
       </c>
-      <c r="C37">
-        <v>33.950800765691305</v>
-      </c>
-      <c r="D37">
-        <v>7.37156241454338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="C37" s="1">
+        <v>7.609</v>
+      </c>
+      <c r="D37" s="1">
+        <v>33.950800770000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18">
+      <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>46979</v>
       </c>
-      <c r="C38">
-        <v>36.356670001490002</v>
-      </c>
-      <c r="D38">
-        <v>5.5343877051448498</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="C38" s="1">
+        <v>6.173</v>
+      </c>
+      <c r="D38" s="1">
+        <v>36.356670000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18">
+      <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>12156</v>
       </c>
-      <c r="C39">
-        <v>46.692991115498501</v>
-      </c>
-      <c r="D39">
-        <v>13.9848634419217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="C39" s="1">
+        <v>13.984999999999999</v>
+      </c>
+      <c r="D39" s="1">
+        <v>46.692991120000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18">
+      <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>232557</v>
       </c>
-      <c r="C40">
-        <v>32.395498737943804</v>
-      </c>
-      <c r="D40">
-        <v>3.9130191737939501</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+      <c r="C40" s="1">
+        <v>4.4720000000000004</v>
+      </c>
+      <c r="D40" s="1">
+        <v>32.395498740000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18">
+      <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>56534</v>
       </c>
-      <c r="C41">
-        <v>45.982948314288699</v>
-      </c>
-      <c r="D41">
-        <v>4.4221176637067998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="C41" s="1">
+        <v>4.9530000000000003</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45.982948309999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18">
+      <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>20746</v>
       </c>
-      <c r="C42">
-        <v>46.577653523570802</v>
-      </c>
-      <c r="D42">
-        <v>3.3741444133808902</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="C42" s="1">
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="D42" s="1">
+        <v>46.577653519999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18">
+      <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>48929</v>
       </c>
-      <c r="C43">
-        <v>41.533650800139</v>
-      </c>
-      <c r="D43">
-        <v>4.0875554374706198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="C43" s="1">
+        <v>3.883</v>
+      </c>
+      <c r="D43" s="1">
+        <v>41.533650799999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18">
+      <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>81778</v>
       </c>
-      <c r="C44">
-        <v>46.209249431387398</v>
-      </c>
-      <c r="D44">
-        <v>5.6249847147154499</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="C44" s="1">
+        <v>6.2359999999999998</v>
+      </c>
+      <c r="D44" s="1">
+        <v>46.20924943</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18">
+      <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>3664</v>
       </c>
-      <c r="C45">
-        <v>58.051310043668103</v>
-      </c>
-      <c r="D45">
-        <v>8.1877729257641896</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="C45" s="1">
+        <v>8.1880000000000006</v>
+      </c>
+      <c r="D45" s="1">
+        <v>58.051310039999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18">
+      <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>23008</v>
       </c>
-      <c r="C46">
-        <v>47.031467315716299</v>
-      </c>
-      <c r="D46">
-        <v>4.7809457579972197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="C46" s="1">
+        <v>5.2160000000000002</v>
+      </c>
+      <c r="D46" s="1">
+        <v>47.031467319999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18">
+      <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>9081</v>
       </c>
-      <c r="C47">
-        <v>50.313842087875805</v>
-      </c>
-      <c r="D47">
-        <v>6.6072018500165202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="C47" s="1">
+        <v>5.5060000000000002</v>
+      </c>
+      <c r="D47" s="1">
+        <v>50.313842090000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18">
+      <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>6155</v>
       </c>
-      <c r="C48">
-        <v>58.245329000812397</v>
-      </c>
-      <c r="D48">
-        <v>6.4987814784727904</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="C48" s="1">
+        <v>4.8739999999999997</v>
+      </c>
+      <c r="D48" s="1">
+        <v>58.245328999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18">
+      <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>57975</v>
       </c>
-      <c r="C49">
-        <v>41.322984044846898</v>
-      </c>
-      <c r="D49">
-        <v>5.3471323846485603</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="C49" s="1">
+        <v>5.52</v>
+      </c>
+      <c r="D49" s="1">
+        <v>41.322984040000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18">
+      <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>23389</v>
       </c>
-      <c r="C50">
-        <v>50.032066355979296</v>
-      </c>
-      <c r="D50">
-        <v>5.1306169566890398</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="C50" s="1">
+        <v>5.5579999999999998</v>
+      </c>
+      <c r="D50" s="1">
+        <v>50.032066360000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18">
+      <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>24250</v>
       </c>
-      <c r="C51">
-        <v>44.717525773195902</v>
-      </c>
-      <c r="D51">
-        <v>7.0103092783505199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="C51" s="1">
+        <v>7.835</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44.717525770000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18">
+      <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>37634</v>
       </c>
-      <c r="C52">
-        <v>40.7424137747781</v>
-      </c>
-      <c r="D52">
-        <v>3.7200403890099398</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="C52" s="1">
+        <v>3.9860000000000002</v>
+      </c>
+      <c r="D52" s="1">
+        <v>40.742413769999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18">
+      <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>64961</v>
       </c>
-      <c r="C53">
-        <v>41.287849632856599</v>
-      </c>
-      <c r="D53">
-        <v>6.7732947460784203</v>
+      <c r="C53" s="1">
+        <v>7.0810000000000004</v>
+      </c>
+      <c r="D53" s="1">
+        <v>41.287849629999997</v>
       </c>
     </row>
   </sheetData>
